--- a/data/unchecked/manual_collect/china/jiangsu/jiangsuCaseStatistics_20200224.xlsx
+++ b/data/unchecked/manual_collect/china/jiangsu/jiangsuCaseStatistics_20200224.xlsx
@@ -10286,12 +10286,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -10381,13 +10381,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -10395,7 +10388,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10410,7 +10463,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10426,45 +10487,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10487,30 +10510,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10537,7 +10537,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10555,7 +10591,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10567,37 +10645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10609,7 +10657,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10621,37 +10687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10663,61 +10705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10728,6 +10728,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10772,39 +10814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10819,25 +10828,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10846,16 +10846,16 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10864,115 +10864,115 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11358,7 +11358,7 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -12106,7 +12106,7 @@
         <v>66</v>
       </c>
       <c r="O10" s="19">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>43</v>
@@ -12520,14 +12520,17 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
+      <formula1>"手动,自动"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G17:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 J2:J15 L3:L15 N3:N15 I16:R1048576 P3:R15">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 J2:J15 L3:L15 N3:N15 I16:R1048576 P3:R15">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>INDIRECT($G2)</formula1>
@@ -12535,14 +12538,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F17:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
-      <formula1>"手动,自动"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
